--- a/HT-1/Monopoly-BAC-12-Catálogo de restricciones.xlsx
+++ b/HT-1/Monopoly-BAC-12-Catálogo de restricciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9508D252-3C34-0C4E-90B2-6351D8161C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9FF4E4-ACE0-4F6A-9017-C158BA33D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33320" yWindow="280" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-12" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Descripción</t>
   </si>
@@ -51,10 +51,16 @@
     <t>Modelo conceptual</t>
   </si>
   <si>
-    <t>Una propiedad está ligada a únicamente una casilla y una tarjeta</t>
+    <t>Cada propiedad está asociada a una única tarjeta y casilla.</t>
   </si>
   <si>
     <t>Cada jugador toma el control de una única ficha</t>
+  </si>
+  <si>
+    <t>Cada propiedad tiene un nombre único</t>
+  </si>
+  <si>
+    <t>Todos los billetes de una misma denominación tienen el mismo color</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,35 +460,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -490,15 +496,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -506,37 +512,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>

--- a/HT-1/Monopoly-BAC-12-Catálogo de restricciones.xlsx
+++ b/HT-1/Monopoly-BAC-12-Catálogo de restricciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9FF4E4-ACE0-4F6A-9017-C158BA33D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC3545-5276-4FC8-8F12-1B619ABFBEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-12" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Descripción</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Todos los billetes de una misma denominación tienen el mismo color</t>
+  </si>
+  <si>
+    <t>Cada propiedad de un mismo barrio tiene el mismo color</t>
+  </si>
+  <si>
+    <t>Todas las casas tienen el mismo color</t>
+  </si>
+  <si>
+    <t>Todos los hoteles tienen el mismo color</t>
   </si>
 </sst>
 </file>
@@ -458,99 +467,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="2:3" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:3" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="10" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
